--- a/biology/Botanique/Xyris_complanata/Xyris_complanata.xlsx
+++ b/biology/Botanique/Xyris_complanata/Xyris_complanata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xyris complanata est une espèce de la famille des Xyridaceae. C'est une plante vivace qui est connue sous le nom de œil jaune à plumes.
 </t>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est originaire du Sud de la Chine, de l'Inde, du Sri Lanka, de la Thaïlande, du Cambodge, du Laos, du Viêt Nam, de la Malaisie, de l'Indonésie (Java, Sulawesi, Kalimantan, Sumatra), des Philippines, de la Nouvelle-Guinée et de l'Australie (Nouvelle-Galles du Sud, Queensland, Territoire du Nord et Australie-Occidentale)[1]. 
-Elle est également naturalisée à Hawaï où elle est connue sous le nom de Hawai'i yelloweyed grass.[2],[3],[1]. En Nouvelle-Galles du Sud, Elle pousse dans les zones humides, souvent à proximité des marécages ou dans les landes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est originaire du Sud de la Chine, de l'Inde, du Sri Lanka, de la Thaïlande, du Cambodge, du Laos, du Viêt Nam, de la Malaisie, de l'Indonésie (Java, Sulawesi, Kalimantan, Sumatra), des Philippines, de la Nouvelle-Guinée et de l'Australie (Nouvelle-Galles du Sud, Queensland, Territoire du Nord et Australie-Occidentale). 
+Elle est également naturalisée à Hawaï où elle est connue sous le nom de Hawai'i yelloweyed grass.. En Nouvelle-Galles du Sud, Elle pousse dans les zones humides, souvent à proximité des marécages ou dans les landes.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (27 décembre 2023)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (27 décembre 2023) :
 Xyris complanata var. bracteata Benth., 1878
 Xyris complanata var. complanata
 Xyris complanata var. leptocaulis Benth., 1878</t>
@@ -576,11 +592,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Xyris complanata R.Br.[4].
-Cette espèce est apparue pour la première fois dans la littérature scientifique en 1810[5].
-Xyris complanata a pour synonymes[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Xyris complanata R.Br..
+Cette espèce est apparue pour la première fois dans la littérature scientifique en 1810.
+Xyris complanata a pour synonymes :
 Xyris anceps Vahl
 Xyris elongata Rudge
 Xyris laevis R.Br.
@@ -616,9 +634,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épithète spécifique « complanata » fait référence à la tige de la feuille aplatie[6]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique « complanata » fait référence à la tige de la feuille aplatie. 
 </t>
         </is>
       </c>
